--- a/Symptom_table.xlsx
+++ b/Symptom_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\2023_Content_Pain_Sensitization\R_code_pain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DAEDD8-54EC-4431-BF26-0DE05B596669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A7B625-9300-4856-A3F5-ACCBBE5FBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="2680" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="13"/>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="N50" s="1">
         <f>SUM(N10:N48)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="13"/>
@@ -2757,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="N52" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="29"/>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="N53" s="18">
         <f>N50/B50</f>
-        <v>0.25641025641025639</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="O53" s="18"/>
       <c r="P53" s="13"/>
